--- a/Weekly Tasks Folder/05.03.2016-11.03.2016/05.03.2016 - 12.03.2016 Арыскалиев Рамазан.xlsx
+++ b/Weekly Tasks Folder/05.03.2016-11.03.2016/05.03.2016 - 12.03.2016 Арыскалиев Рамазан.xlsx
@@ -15,7 +15,6 @@
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="152511"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -66,10 +65,10 @@
     <t>Доделать таски</t>
   </si>
   <si>
-    <t>Api для проверки доступа пользователя к фильму</t>
-  </si>
-  <si>
     <t>Api для записи фильма в историю пользователя</t>
+  </si>
+  <si>
+    <t>Api для подписки к тарифному плану</t>
   </si>
 </sst>
 </file>
@@ -135,9 +134,6 @@
   </cellStyleXfs>
   <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -146,6 +142,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -458,7 +457,7 @@
   <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -475,113 +474,113 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
     </row>
     <row r="2" spans="1:9" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
     </row>
     <row r="3" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="F3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="G3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="5" t="s">
+      <c r="H3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I3" s="5" t="s">
+      <c r="I3" s="4" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="5" t="s">
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="4" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="5" t="s">
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="4" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="4"/>
+    </row>
+    <row r="7" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="5"/>
-    </row>
-    <row r="7" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="5"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="1">
